--- a/rate_database.xlsx
+++ b/rate_database.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Packaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66D42AF-D3DF-47CB-A050-8EB6FCFA7908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A17D9D-961F-406D-84B3-7B48A28A28AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1908D0FA-1D56-47CE-B935-8E4B9D4ABED4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{1908D0FA-1D56-47CE-B935-8E4B9D4ABED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>CTP</t>
   </si>
@@ -94,17 +96,103 @@
   </si>
   <si>
     <t>Price/kg</t>
+  </si>
+  <si>
+    <t>CTP Plates</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Die Making</t>
+  </si>
+  <si>
+    <t>Foil Block</t>
+  </si>
+  <si>
+    <t>DebossBlock</t>
+  </si>
+  <si>
+    <t>EmbossBlock</t>
+  </si>
+  <si>
+    <t>Carrugation</t>
+  </si>
+  <si>
+    <t>D Tapes</t>
+  </si>
+  <si>
+    <t>PVC Window</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>col1</t>
+  </si>
+  <si>
+    <t>col2</t>
+  </si>
+  <si>
+    <t>col3</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Printing</t>
+  </si>
+  <si>
+    <t>Lam</t>
+  </si>
+  <si>
+    <t>Die cut</t>
+  </si>
+  <si>
+    <t>Uv Coating</t>
+  </si>
+  <si>
+    <t>Foiling</t>
+  </si>
+  <si>
+    <t>Debossing</t>
+  </si>
+  <si>
+    <t>Embossing</t>
+  </si>
+  <si>
+    <t>Binding</t>
+  </si>
+  <si>
+    <t>Carrug Lab</t>
+  </si>
+  <si>
+    <t>Packing</t>
+  </si>
+  <si>
+    <t>Custom W</t>
+  </si>
+  <si>
+    <t>Lab Total</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,8 +215,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +304,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -392,6 +519,96 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -399,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -544,6 +761,105 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="14" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -863,7 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DA50BB-5454-47C4-844C-54422AFF8DA1}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1134,4 +1450,278 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65227EE-7C4C-4C12-A646-439DC33E9C7B}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="55"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="56"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="56"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="56"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8114E3-497D-40AC-BFC6-5F21EDD03010}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="73"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="72">
+        <v>0</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="73"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="73"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="73"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="73"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="73"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="73"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="78"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rate_database.xlsx
+++ b/rate_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Packaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A17D9D-961F-406D-84B3-7B48A28A28AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710A87CF-E849-426A-B5D3-3478C0C22FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{1908D0FA-1D56-47CE-B935-8E4B9D4ABED4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1908D0FA-1D56-47CE-B935-8E4B9D4ABED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>CTP</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>Matte</t>
+  </si>
+  <si>
+    <t>Gloss</t>
+  </si>
+  <si>
+    <t>Soft Touch</t>
+  </si>
+  <si>
+    <t>Varnish</t>
   </si>
 </sst>
 </file>
@@ -323,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -609,6 +621,15 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -616,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -860,6 +881,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1177,15 +1201,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DA50BB-5454-47C4-844C-54422AFF8DA1}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1226,8 +1250,20 @@
       <c r="N1" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1300,20 @@
         <v>700</v>
       </c>
       <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O2" s="79">
+        <v>3.5</v>
+      </c>
+      <c r="P2">
+        <v>2.5</v>
+      </c>
+      <c r="Q2">
+        <v>25</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
@@ -1303,7 +1351,7 @@
       </c>
       <c r="N3" s="30"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>15</v>
       </c>
@@ -1341,7 +1389,7 @@
       </c>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="21" t="s">
         <v>17</v>
       </c>
@@ -1379,7 +1427,7 @@
       </c>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="21" t="s">
         <v>19</v>
       </c>
@@ -1413,7 +1461,7 @@
       </c>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -1579,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8114E3-497D-40AC-BFC6-5F21EDD03010}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/rate_database.xlsx
+++ b/rate_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Packaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710A87CF-E849-426A-B5D3-3478C0C22FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823107A7-06E6-4F66-82EA-1E0DFEE67F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1908D0FA-1D56-47CE-B935-8E4B9D4ABED4}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>CTP</t>
   </si>
@@ -1201,15 +1201,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DA50BB-5454-47C4-844C-54422AFF8DA1}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1248,22 +1248,25 @@
         <v>8</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>53</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -1299,21 +1302,24 @@
       <c r="M2" s="19">
         <v>700</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="79">
-        <v>3.5</v>
-      </c>
-      <c r="P2">
-        <v>2.5</v>
+      <c r="N2" s="31">
+        <v>1500</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="79">
+        <v>3</v>
       </c>
       <c r="Q2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
@@ -1349,9 +1355,12 @@
       <c r="M3" s="29">
         <v>900</v>
       </c>
-      <c r="N3" s="30"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N3" s="31">
+        <v>2000</v>
+      </c>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>15</v>
       </c>
@@ -1387,9 +1396,12 @@
       <c r="M4" s="29">
         <v>1300</v>
       </c>
-      <c r="N4" s="31"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N4" s="31">
+        <v>3000</v>
+      </c>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="21" t="s">
         <v>17</v>
       </c>
@@ -1425,9 +1437,12 @@
       <c r="M5" s="29">
         <v>1800</v>
       </c>
-      <c r="N5" s="31"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N5" s="31">
+        <v>3500</v>
+      </c>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="21" t="s">
         <v>19</v>
       </c>
@@ -1459,9 +1474,12 @@
       <c r="M6" s="35">
         <v>2300</v>
       </c>
-      <c r="N6" s="31"/>
-    </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N6" s="31">
+        <v>4000</v>
+      </c>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -1493,7 +1511,10 @@
       <c r="M7" s="45">
         <v>3300</v>
       </c>
-      <c r="N7" s="31"/>
+      <c r="N7" s="31">
+        <v>5000</v>
+      </c>
+      <c r="O7" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
